--- a/data/BR0010P850_ingredients.xlsx
+++ b/data/BR0010P850_ingredients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\rm-evaluation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52DA7FB-FE8B-4EAA-AF87-DBAEB5FAC227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDFC77C-EFDB-49B6-B01D-2FC3746EEACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{085AE79A-E51F-42DF-94CF-79F9BE73B875}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="24">
   <si>
     <t>Date Issued</t>
   </si>
@@ -159,7 +159,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -469,11 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B4D8E0-9CFA-40AB-942E-29BB3649F436}">
-  <dimension ref="A1:K231"/>
+  <dimension ref="A1:K229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L156" sqref="L156"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>23633</v>
+        <v>23632</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -581,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>23632</v>
+        <v>35975</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -590,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -598,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>23632</v>
+        <v>54216</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -606,8 +617,8 @@
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -615,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>35975</v>
+        <v>54715</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -623,8 +634,8 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
+      <c r="G7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -632,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>54216</v>
+        <v>54716</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -649,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>54715</v>
+        <v>54717</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -657,8 +668,8 @@
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>15</v>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -666,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>54716</v>
+        <v>54963</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -674,8 +685,8 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -683,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>54717</v>
+        <v>54964</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -700,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>54963</v>
+        <v>54965</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -717,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>54964</v>
+        <v>55763</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -734,12 +745,12 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>54965</v>
+        <v>55764</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -751,12 +762,12 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>55763</v>
+        <v>55765</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -768,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>55764</v>
+        <v>56058</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -785,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>55765</v>
+        <v>56059</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -802,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>56058</v>
+        <v>56060</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -819,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>56059</v>
+        <v>56486</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -836,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>56060</v>
+        <v>56487</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -853,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <v>56486</v>
+        <v>56488</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -870,16 +881,16 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>56487</v>
+        <v>56698</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
@@ -887,16 +898,16 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>56488</v>
+        <v>56699</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -904,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>56698</v>
+        <v>56700</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F24" t="s">
-        <v>16</v>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>14</v>
@@ -921,16 +932,16 @@
         <v>10</v>
       </c>
       <c r="D25">
-        <v>56699</v>
+        <v>57211</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -938,12 +949,12 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>56700</v>
+        <v>57212</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -955,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>57211</v>
+        <v>57213</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>11</v>
@@ -972,16 +983,16 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>57212</v>
+        <v>63837</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -989,16 +1000,16 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>57213</v>
+        <v>63903</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -1006,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="D30">
-        <v>63837</v>
+        <v>63904</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>11</v>
@@ -1023,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>63903</v>
+        <v>63905</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>11</v>
@@ -1040,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <v>63904</v>
+        <v>63906</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
@@ -1057,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="D33">
-        <v>63905</v>
+        <v>63907</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
@@ -1074,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="D34">
-        <v>63906</v>
+        <v>64144</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>11</v>
@@ -1083,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
@@ -1091,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <v>63907</v>
+        <v>64145</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
@@ -1100,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
@@ -1108,13 +1119,13 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>64144</v>
+        <v>64146</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>17</v>
@@ -1125,13 +1136,13 @@
         <v>10</v>
       </c>
       <c r="D37">
-        <v>64145</v>
+        <v>64147</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>17</v>
@@ -1142,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="D38">
-        <v>64146</v>
+        <v>64148</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
@@ -1159,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>64147</v>
+        <v>64149</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>11</v>
@@ -1176,13 +1187,13 @@
         <v>10</v>
       </c>
       <c r="D40">
-        <v>64148</v>
+        <v>65136</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>17</v>
@@ -1193,13 +1204,13 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <v>64149</v>
+        <v>65135</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>17</v>
@@ -1210,13 +1221,13 @@
         <v>10</v>
       </c>
       <c r="D42">
-        <v>65136</v>
+        <v>65167</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>17</v>
@@ -1227,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="D43">
-        <v>65135</v>
+        <v>65460</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
@@ -1244,13 +1255,13 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>65167</v>
+        <v>65603</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>17</v>
@@ -1261,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="D45">
-        <v>65460</v>
+        <v>65602</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>11</v>
@@ -1278,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="D46">
-        <v>65603</v>
+        <v>65610</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
@@ -1295,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>65602</v>
+        <v>65636</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
@@ -1304,7 +1315,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
@@ -1312,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="D48">
-        <v>65610</v>
+        <v>65637</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
@@ -1321,7 +1332,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
@@ -1329,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="D49">
-        <v>65636</v>
+        <v>65763</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
@@ -1346,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="D50">
-        <v>65637</v>
+        <v>65764</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
@@ -1363,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <v>65763</v>
+        <v>65765</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
@@ -1380,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="D52">
-        <v>65764</v>
+        <v>65912</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
@@ -1389,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
@@ -1397,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="D53">
-        <v>65765</v>
+        <v>65913</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
@@ -1406,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
@@ -1414,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="D54">
-        <v>65912</v>
+        <v>65914</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -1431,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="D55">
-        <v>65913</v>
+        <v>66018</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
@@ -1448,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="D56">
-        <v>65914</v>
+        <v>66022</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -1465,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <v>66018</v>
+        <v>66023</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
@@ -1482,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="D58">
-        <v>66022</v>
+        <v>66024</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
@@ -1499,7 +1510,7 @@
         <v>10</v>
       </c>
       <c r="D59">
-        <v>66023</v>
+        <v>66148</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -1508,7 +1519,7 @@
         <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.35">
@@ -1516,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <v>66024</v>
+        <v>66150</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -1525,7 +1536,7 @@
         <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.35">
@@ -1533,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <v>66148</v>
+        <v>66151</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -1550,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <v>66150</v>
+        <v>66339</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
@@ -1559,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.35">
@@ -1567,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <v>66151</v>
+        <v>66340</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
@@ -1576,7 +1587,7 @@
         <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.35">
@@ -1584,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="D64">
-        <v>66339</v>
+        <v>66341</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>11</v>
@@ -1601,7 +1612,7 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>66340</v>
+        <v>66342</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
@@ -1618,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <v>66341</v>
+        <v>66552</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
@@ -1635,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <v>66342</v>
+        <v>66554</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
@@ -1652,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <v>66552</v>
+        <v>66555</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
@@ -1669,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="D69">
-        <v>66554</v>
+        <v>66556</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
@@ -1686,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="D70">
-        <v>66555</v>
+        <v>66686</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
@@ -1703,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <v>66556</v>
+        <v>66687</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
@@ -1720,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="D72">
-        <v>66686</v>
+        <v>66688</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
@@ -1737,7 +1748,7 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>66687</v>
+        <v>66689</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
@@ -1754,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="D74">
-        <v>66688</v>
+        <v>66877</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
@@ -1763,7 +1774,7 @@
         <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.35">
@@ -1771,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="D75">
-        <v>66689</v>
+        <v>66878</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -1780,7 +1791,7 @@
         <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.35">
@@ -1788,7 +1799,7 @@
         <v>10</v>
       </c>
       <c r="D76">
-        <v>66877</v>
+        <v>66879</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
@@ -1805,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="D77">
-        <v>66878</v>
+        <v>66880</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
@@ -1822,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="D78">
-        <v>66879</v>
+        <v>66946</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
@@ -1831,7 +1842,7 @@
         <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.35">
@@ -1839,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="D79">
-        <v>66880</v>
+        <v>67219</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
@@ -1848,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.35">
@@ -1856,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="D80">
-        <v>66946</v>
+        <v>67220</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -1873,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <v>67219</v>
+        <v>67221</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -1890,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="D82">
-        <v>67220</v>
+        <v>67222</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -1907,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="D83">
-        <v>67221</v>
+        <v>67623</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -1924,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="D84">
-        <v>67222</v>
+        <v>67624</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>11</v>
@@ -1941,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="D85">
-        <v>67623</v>
+        <v>67625</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>11</v>
@@ -1958,7 +1969,7 @@
         <v>10</v>
       </c>
       <c r="D86">
-        <v>67624</v>
+        <v>67869</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>11</v>
@@ -1967,7 +1978,7 @@
         <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.35">
@@ -1975,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="D87">
-        <v>67625</v>
+        <v>68088</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
@@ -1984,7 +1995,7 @@
         <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.35">
@@ -1992,7 +2003,7 @@
         <v>10</v>
       </c>
       <c r="D88">
-        <v>67869</v>
+        <v>68089</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
@@ -2009,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="D89">
-        <v>68088</v>
+        <v>68090</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
@@ -2026,7 +2037,7 @@
         <v>10</v>
       </c>
       <c r="D90">
-        <v>68089</v>
+        <v>68091</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
@@ -2043,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="D91">
-        <v>68090</v>
+        <v>68403</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
@@ -2060,7 +2071,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>68091</v>
+        <v>68404</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
@@ -2077,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="D93">
-        <v>68403</v>
+        <v>68405</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
@@ -2094,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="D94">
-        <v>68404</v>
+        <v>68406</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
@@ -2111,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="D95">
-        <v>68405</v>
+        <v>68628</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -2128,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="D96">
-        <v>68406</v>
+        <v>68629</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
@@ -2145,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="D97">
-        <v>68628</v>
+        <v>68630</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
@@ -2162,7 +2173,7 @@
         <v>10</v>
       </c>
       <c r="D98">
-        <v>68629</v>
+        <v>68631</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
@@ -2179,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="D99">
-        <v>68630</v>
+        <v>13597</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -2196,7 +2207,7 @@
         <v>10</v>
       </c>
       <c r="D100">
-        <v>68631</v>
+        <v>13598</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
@@ -2213,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="D101">
-        <v>13597</v>
+        <v>13599</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
@@ -2222,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.35">
@@ -2230,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="D102">
-        <v>13598</v>
+        <v>13600</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
@@ -2239,7 +2250,7 @@
         <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.35">
@@ -2247,7 +2258,7 @@
         <v>10</v>
       </c>
       <c r="D103">
-        <v>13599</v>
+        <v>14763</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -2264,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>13600</v>
+        <v>14765</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
@@ -2281,7 +2292,7 @@
         <v>10</v>
       </c>
       <c r="D105">
-        <v>14763</v>
+        <v>14766</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
@@ -2298,13 +2309,13 @@
         <v>10</v>
       </c>
       <c r="D106">
-        <v>14765</v>
+        <v>14767</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>14</v>
@@ -2315,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="D107">
-        <v>14766</v>
+        <v>15556</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
@@ -2332,13 +2343,13 @@
         <v>10</v>
       </c>
       <c r="D108">
-        <v>14767</v>
+        <v>15557</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>14</v>
@@ -2349,7 +2360,7 @@
         <v>10</v>
       </c>
       <c r="D109">
-        <v>15556</v>
+        <v>16203</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
@@ -2358,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.35">
@@ -2366,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="D110">
-        <v>15557</v>
+        <v>16204</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -2375,7 +2386,7 @@
         <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.35">
@@ -2383,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="D111">
-        <v>16203</v>
+        <v>18740</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
@@ -2400,7 +2411,7 @@
         <v>10</v>
       </c>
       <c r="D112">
-        <v>16204</v>
+        <v>18750</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -2417,13 +2428,13 @@
         <v>10</v>
       </c>
       <c r="D113">
-        <v>18740</v>
+        <v>18751</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>13</v>
@@ -2434,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="D114">
-        <v>18750</v>
+        <v>19365</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -2451,13 +2462,13 @@
         <v>10</v>
       </c>
       <c r="D115">
-        <v>18751</v>
+        <v>19689</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>13</v>
@@ -2468,13 +2479,13 @@
         <v>10</v>
       </c>
       <c r="D116">
-        <v>19365</v>
+        <v>19690</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>13</v>
@@ -2485,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="D117">
-        <v>19689</v>
+        <v>19364</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>13</v>
@@ -2502,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="D118">
-        <v>19690</v>
+        <v>20401</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
@@ -2519,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="D119">
-        <v>19364</v>
+        <v>20580</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>11</v>
@@ -2528,7 +2539,7 @@
         <v>20</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.35">
@@ -2536,7 +2547,7 @@
         <v>10</v>
       </c>
       <c r="D120">
-        <v>20401</v>
+        <v>20581</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
@@ -2545,7 +2556,7 @@
         <v>20</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.35">
@@ -2553,7 +2564,7 @@
         <v>10</v>
       </c>
       <c r="D121">
-        <v>20580</v>
+        <v>20962</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
@@ -2562,7 +2573,7 @@
         <v>20</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.35">
@@ -2570,7 +2581,7 @@
         <v>10</v>
       </c>
       <c r="D122">
-        <v>20581</v>
+        <v>20964</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -2579,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.35">
@@ -2587,7 +2598,7 @@
         <v>10</v>
       </c>
       <c r="D123">
-        <v>20962</v>
+        <v>20967</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
@@ -2604,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="D124">
-        <v>20964</v>
+        <v>21005</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>11</v>
@@ -2621,7 +2632,7 @@
         <v>10</v>
       </c>
       <c r="D125">
-        <v>20967</v>
+        <v>22024</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>11</v>
@@ -2638,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="D126">
-        <v>21005</v>
+        <v>22026</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>11</v>
@@ -2655,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="D127">
-        <v>22024</v>
+        <v>22319</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>11</v>
@@ -2664,7 +2675,7 @@
         <v>20</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.35">
@@ -2672,7 +2683,7 @@
         <v>10</v>
       </c>
       <c r="D128">
-        <v>22026</v>
+        <v>22324</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>11</v>
@@ -2681,7 +2692,7 @@
         <v>20</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.35">
@@ -2689,7 +2700,7 @@
         <v>10</v>
       </c>
       <c r="D129">
-        <v>22319</v>
+        <v>22810</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>11</v>
@@ -2706,7 +2717,7 @@
         <v>10</v>
       </c>
       <c r="D130">
-        <v>22324</v>
+        <v>22811</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>11</v>
@@ -2723,7 +2734,7 @@
         <v>10</v>
       </c>
       <c r="D131">
-        <v>22810</v>
+        <v>22813</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>11</v>
@@ -2740,13 +2751,13 @@
         <v>10</v>
       </c>
       <c r="D132">
-        <v>22811</v>
+        <v>22817</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>13</v>
@@ -2757,7 +2768,7 @@
         <v>10</v>
       </c>
       <c r="D133">
-        <v>22813</v>
+        <v>23654</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>11</v>
@@ -2774,13 +2785,13 @@
         <v>10</v>
       </c>
       <c r="D134">
-        <v>22817</v>
+        <v>23655</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>13</v>
@@ -2791,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="D135">
-        <v>23654</v>
+        <v>23656</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>11</v>
@@ -2808,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="D136">
-        <v>23655</v>
+        <v>23657</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>11</v>
@@ -2825,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="D137">
-        <v>23656</v>
+        <v>24164</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>11</v>
@@ -2842,7 +2853,7 @@
         <v>10</v>
       </c>
       <c r="D138">
-        <v>23657</v>
+        <v>24165</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>11</v>
@@ -2859,7 +2870,7 @@
         <v>10</v>
       </c>
       <c r="D139">
-        <v>24164</v>
+        <v>24167</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>11</v>
@@ -2868,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.35">
@@ -2876,7 +2887,7 @@
         <v>10</v>
       </c>
       <c r="D140">
-        <v>24165</v>
+        <v>24221</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>11</v>
@@ -2885,7 +2896,7 @@
         <v>20</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.35">
@@ -2893,16 +2904,16 @@
         <v>10</v>
       </c>
       <c r="D141">
-        <v>24167</v>
+        <v>24781</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F141" t="s">
-        <v>20</v>
+      <c r="F141" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.35">
@@ -2910,16 +2921,16 @@
         <v>10</v>
       </c>
       <c r="D142">
-        <v>24221</v>
+        <v>24782</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" t="s">
-        <v>20</v>
+      <c r="F142" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.35">
@@ -2927,7 +2938,7 @@
         <v>10</v>
       </c>
       <c r="D143">
-        <v>24781</v>
+        <v>24783</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>11</v>
@@ -2944,13 +2955,13 @@
         <v>10</v>
       </c>
       <c r="D144">
-        <v>24782</v>
+        <v>24784</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>13</v>
@@ -2961,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="D145">
-        <v>24783</v>
+        <v>25310</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>11</v>
@@ -2978,13 +2989,13 @@
         <v>10</v>
       </c>
       <c r="D146">
-        <v>24784</v>
+        <v>25312</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>13</v>
@@ -2995,7 +3006,7 @@
         <v>10</v>
       </c>
       <c r="D147">
-        <v>25310</v>
+        <v>25313</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>11</v>
@@ -3012,13 +3023,13 @@
         <v>10</v>
       </c>
       <c r="D148">
-        <v>25312</v>
+        <v>25314</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>13</v>
@@ -3029,16 +3040,16 @@
         <v>10</v>
       </c>
       <c r="D149">
-        <v>25313</v>
+        <v>25542</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>12</v>
+      <c r="F149" t="s">
+        <v>20</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.35">
@@ -3046,16 +3057,16 @@
         <v>10</v>
       </c>
       <c r="D150">
-        <v>25314</v>
+        <v>25543</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>16</v>
+      <c r="F150" t="s">
+        <v>20</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.35">
@@ -3063,7 +3074,7 @@
         <v>10</v>
       </c>
       <c r="D151">
-        <v>25542</v>
+        <v>25544</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>11</v>
@@ -3080,7 +3091,7 @@
         <v>10</v>
       </c>
       <c r="D152">
-        <v>25543</v>
+        <v>25545</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>11</v>
@@ -3097,16 +3108,16 @@
         <v>10</v>
       </c>
       <c r="D153">
-        <v>25544</v>
+        <v>31394</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F153" t="s">
-        <v>20</v>
+      <c r="F153" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.35">
@@ -3114,16 +3125,16 @@
         <v>10</v>
       </c>
       <c r="D154">
-        <v>25545</v>
+        <v>31395</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F154" t="s">
-        <v>20</v>
+      <c r="F154" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.35">
@@ -3131,7 +3142,7 @@
         <v>10</v>
       </c>
       <c r="D155">
-        <v>31394</v>
+        <v>31398</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>11</v>
@@ -3148,7 +3159,7 @@
         <v>10</v>
       </c>
       <c r="D156">
-        <v>31395</v>
+        <v>31399</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>11</v>
@@ -3165,7 +3176,7 @@
         <v>10</v>
       </c>
       <c r="D157">
-        <v>31398</v>
+        <v>31716</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>11</v>
@@ -3182,7 +3193,7 @@
         <v>10</v>
       </c>
       <c r="D158">
-        <v>31399</v>
+        <v>31718</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>11</v>
@@ -3199,7 +3210,7 @@
         <v>10</v>
       </c>
       <c r="D159">
-        <v>31716</v>
+        <v>31719</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>11</v>
@@ -3216,7 +3227,7 @@
         <v>10</v>
       </c>
       <c r="D160">
-        <v>31718</v>
+        <v>32091</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>11</v>
@@ -3233,7 +3244,7 @@
         <v>10</v>
       </c>
       <c r="D161">
-        <v>31719</v>
+        <v>32092</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>11</v>
@@ -3250,7 +3261,7 @@
         <v>10</v>
       </c>
       <c r="D162">
-        <v>32091</v>
+        <v>32093</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>11</v>
@@ -3267,24 +3278,30 @@
         <v>10</v>
       </c>
       <c r="D163">
-        <v>32092</v>
+        <v>32095</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A164" s="3">
+        <v>44575</v>
+      </c>
       <c r="B164" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D164">
-        <v>32093</v>
+      <c r="C164" s="2">
+        <v>1134798</v>
+      </c>
+      <c r="D164" s="2">
+        <v>32911</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>11</v>
@@ -3295,23 +3312,39 @@
       <c r="G164" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="H164" s="2">
+        <v>12</v>
+      </c>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A165" s="3">
+        <v>44575</v>
+      </c>
       <c r="B165" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D165">
-        <v>32095</v>
+      <c r="C165" s="2">
+        <v>1134799</v>
+      </c>
+      <c r="D165" s="2">
+        <v>32912</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="H165" s="2">
+        <v>12</v>
+      </c>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
@@ -3321,10 +3354,10 @@
         <v>10</v>
       </c>
       <c r="C166" s="2">
-        <v>1134798</v>
+        <v>1134800</v>
       </c>
       <c r="D166" s="2">
-        <v>32911</v>
+        <v>32913</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>11</v>
@@ -3349,10 +3382,10 @@
         <v>10</v>
       </c>
       <c r="C167" s="2">
-        <v>1134799</v>
+        <v>1134801</v>
       </c>
       <c r="D167" s="2">
-        <v>32912</v>
+        <v>32914</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>11</v>
@@ -3371,16 +3404,16 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
-        <v>44575</v>
+        <v>44582</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C168" s="2">
-        <v>1134800</v>
+        <v>1135148</v>
       </c>
       <c r="D168" s="2">
-        <v>32913</v>
+        <v>33344</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>11</v>
@@ -3399,16 +3432,16 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
-        <v>44575</v>
+        <v>44582</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C169" s="2">
-        <v>1134801</v>
+        <v>1135149</v>
       </c>
       <c r="D169" s="2">
-        <v>32914</v>
+        <v>33353</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>11</v>
@@ -3433,10 +3466,10 @@
         <v>10</v>
       </c>
       <c r="C170" s="2">
-        <v>1135148</v>
+        <v>1135150</v>
       </c>
       <c r="D170" s="2">
-        <v>33344</v>
+        <v>33354</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>11</v>
@@ -3461,10 +3494,10 @@
         <v>10</v>
       </c>
       <c r="C171" s="2">
-        <v>1135149</v>
+        <v>1135151</v>
       </c>
       <c r="D171" s="2">
-        <v>33353</v>
+        <v>33355</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>11</v>
@@ -3483,16 +3516,16 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
-        <v>44582</v>
+        <v>44628</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C172" s="2">
-        <v>1135150</v>
+        <v>1138108</v>
       </c>
       <c r="D172" s="2">
-        <v>33354</v>
+        <v>36102</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>11</v>
@@ -3501,7 +3534,7 @@
         <v>12</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H172" s="2">
         <v>12</v>
@@ -3511,16 +3544,16 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
-        <v>44582</v>
+        <v>44628</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C173" s="2">
-        <v>1135151</v>
+        <v>1138109</v>
       </c>
       <c r="D173" s="2">
-        <v>33355</v>
+        <v>36103</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>11</v>
@@ -3529,7 +3562,7 @@
         <v>12</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H173" s="2">
         <v>12</v>
@@ -3545,10 +3578,10 @@
         <v>10</v>
       </c>
       <c r="C174" s="2">
-        <v>1138108</v>
+        <v>1138110</v>
       </c>
       <c r="D174" s="2">
-        <v>36102</v>
+        <v>36104</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>11</v>
@@ -3573,10 +3606,10 @@
         <v>10</v>
       </c>
       <c r="C175" s="2">
-        <v>1138109</v>
+        <v>1138111</v>
       </c>
       <c r="D175" s="2">
-        <v>36103</v>
+        <v>36106</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>11</v>
@@ -3595,16 +3628,16 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
-        <v>44628</v>
+        <v>44641</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C176" s="2">
-        <v>1138110</v>
+        <v>4001496</v>
       </c>
       <c r="D176" s="2">
-        <v>36104</v>
+        <v>36960</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>11</v>
@@ -3613,7 +3646,7 @@
         <v>12</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H176" s="2">
         <v>12</v>
@@ -3623,22 +3656,22 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
-        <v>44628</v>
+        <v>44641</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C177" s="2">
-        <v>1138111</v>
+        <v>4001497</v>
       </c>
       <c r="D177" s="2">
-        <v>36106</v>
+        <v>36962</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>17</v>
@@ -3657,19 +3690,19 @@
         <v>10</v>
       </c>
       <c r="C178" s="2">
-        <v>4001496</v>
+        <v>4001498</v>
       </c>
       <c r="D178" s="2">
-        <v>36960</v>
+        <v>36963</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H178" s="2">
         <v>12</v>
@@ -3679,22 +3712,22 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C179" s="2">
-        <v>4001497</v>
+        <v>1139341</v>
       </c>
       <c r="D179" s="2">
-        <v>36962</v>
+        <v>37338</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>17</v>
@@ -3707,19 +3740,19 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="2">
-        <v>4001498</v>
+        <v>1139342</v>
       </c>
       <c r="D180" s="2">
-        <v>36963</v>
+        <v>37340</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>12</v>
@@ -3735,16 +3768,16 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
-        <v>44645</v>
+        <v>44650</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C181" s="2">
-        <v>1139341</v>
+        <v>1139622</v>
       </c>
       <c r="D181" s="2">
-        <v>37338</v>
+        <v>37657</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>11</v>
@@ -3753,7 +3786,7 @@
         <v>12</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H181" s="2">
         <v>12</v>
@@ -3763,16 +3796,16 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
-        <v>44645</v>
+        <v>44650</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C182" s="2">
-        <v>1139342</v>
+        <v>1139623</v>
       </c>
       <c r="D182" s="2">
-        <v>37340</v>
+        <v>37658</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>11</v>
@@ -3781,7 +3814,7 @@
         <v>12</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H182" s="2">
         <v>12</v>
@@ -3797,10 +3830,10 @@
         <v>10</v>
       </c>
       <c r="C183" s="2">
-        <v>1139622</v>
+        <v>1139624</v>
       </c>
       <c r="D183" s="2">
-        <v>37657</v>
+        <v>37659</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>11</v>
@@ -3825,10 +3858,10 @@
         <v>10</v>
       </c>
       <c r="C184" s="2">
-        <v>1139623</v>
+        <v>1139625</v>
       </c>
       <c r="D184" s="2">
-        <v>37658</v>
+        <v>37660</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>11</v>
@@ -3847,16 +3880,16 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
-        <v>44650</v>
+        <v>44656</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C185" s="2">
-        <v>1139624</v>
+        <v>1139968</v>
       </c>
       <c r="D185" s="2">
-        <v>37659</v>
+        <v>38051</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>11</v>
@@ -3875,16 +3908,16 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
-        <v>44650</v>
+        <v>44656</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C186" s="2">
-        <v>1139625</v>
+        <v>1139969</v>
       </c>
       <c r="D186" s="2">
-        <v>37660</v>
+        <v>38052</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>11</v>
@@ -3909,10 +3942,10 @@
         <v>10</v>
       </c>
       <c r="C187" s="2">
-        <v>1139968</v>
+        <v>1139970</v>
       </c>
       <c r="D187" s="2">
-        <v>38051</v>
+        <v>38053</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>11</v>
@@ -3937,10 +3970,10 @@
         <v>10</v>
       </c>
       <c r="C188" s="2">
-        <v>1139969</v>
+        <v>1139971</v>
       </c>
       <c r="D188" s="2">
-        <v>38052</v>
+        <v>38054</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>11</v>
@@ -3959,16 +3992,16 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
-        <v>44656</v>
+        <v>44662</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C189" s="2">
-        <v>1139970</v>
+        <v>1140323</v>
       </c>
       <c r="D189" s="2">
-        <v>38053</v>
+        <v>38402</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>11</v>
@@ -3987,16 +4020,16 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
-        <v>44656</v>
+        <v>44662</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C190" s="2">
-        <v>1139971</v>
+        <v>1140324</v>
       </c>
       <c r="D190" s="2">
-        <v>38054</v>
+        <v>38403</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>11</v>
@@ -4021,10 +4054,10 @@
         <v>10</v>
       </c>
       <c r="C191" s="2">
-        <v>1140323</v>
+        <v>1140325</v>
       </c>
       <c r="D191" s="2">
-        <v>38402</v>
+        <v>38404</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>11</v>
@@ -4043,16 +4076,16 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C192" s="2">
-        <v>1140324</v>
+        <v>1141309</v>
       </c>
       <c r="D192" s="2">
-        <v>38403</v>
+        <v>39195</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>11</v>
@@ -4071,16 +4104,16 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="2">
-        <v>1140325</v>
+        <v>1141310</v>
       </c>
       <c r="D193" s="2">
-        <v>38404</v>
+        <v>39196</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>11</v>
@@ -4105,10 +4138,10 @@
         <v>10</v>
       </c>
       <c r="C194" s="2">
-        <v>1141309</v>
+        <v>1141311</v>
       </c>
       <c r="D194" s="2">
-        <v>39195</v>
+        <v>39197</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>11</v>
@@ -4133,10 +4166,10 @@
         <v>10</v>
       </c>
       <c r="C195" s="2">
-        <v>1141310</v>
+        <v>1141312</v>
       </c>
       <c r="D195" s="2">
-        <v>39196</v>
+        <v>39198</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>11</v>
@@ -4155,25 +4188,25 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C196" s="2">
-        <v>1141311</v>
+        <v>4001586</v>
       </c>
       <c r="D196" s="2">
-        <v>39197</v>
+        <v>39422</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H196" s="2">
         <v>12</v>
@@ -4183,25 +4216,25 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C197" s="2">
-        <v>1141312</v>
+        <v>4001587</v>
       </c>
       <c r="D197" s="2">
-        <v>39198</v>
+        <v>39423</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H197" s="2">
         <v>12</v>
@@ -4217,16 +4250,16 @@
         <v>10</v>
       </c>
       <c r="C198" s="2">
-        <v>4001586</v>
+        <v>1141636</v>
       </c>
       <c r="D198" s="2">
-        <v>39422</v>
+        <v>39426</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>17</v>
@@ -4245,16 +4278,16 @@
         <v>10</v>
       </c>
       <c r="C199" s="2">
-        <v>4001587</v>
+        <v>1141637</v>
       </c>
       <c r="D199" s="2">
-        <v>39423</v>
+        <v>39428</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>17</v>
@@ -4273,10 +4306,10 @@
         <v>10</v>
       </c>
       <c r="C200" s="2">
-        <v>1141636</v>
+        <v>1141638</v>
       </c>
       <c r="D200" s="2">
-        <v>39426</v>
+        <v>39429</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>11</v>
@@ -4301,10 +4334,10 @@
         <v>10</v>
       </c>
       <c r="C201" s="2">
-        <v>1141637</v>
+        <v>1141639</v>
       </c>
       <c r="D201" s="2">
-        <v>39428</v>
+        <v>39430</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>11</v>
@@ -4313,7 +4346,7 @@
         <v>12</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H201" s="2">
         <v>12</v>
@@ -4323,16 +4356,16 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
-        <v>44679</v>
+        <v>44687</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C202" s="2">
-        <v>1141638</v>
+        <v>1142134</v>
       </c>
       <c r="D202" s="2">
-        <v>39429</v>
+        <v>39914</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>11</v>
@@ -4341,7 +4374,7 @@
         <v>12</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H202" s="2">
         <v>12</v>
@@ -4351,16 +4384,16 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
-        <v>44679</v>
+        <v>44687</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C203" s="2">
-        <v>1141639</v>
+        <v>1142135</v>
       </c>
       <c r="D203" s="2">
-        <v>39430</v>
+        <v>39915</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>11</v>
@@ -4385,10 +4418,10 @@
         <v>10</v>
       </c>
       <c r="C204" s="2">
-        <v>1142134</v>
+        <v>1142136</v>
       </c>
       <c r="D204" s="2">
-        <v>39914</v>
+        <v>39916</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>11</v>
@@ -4413,10 +4446,10 @@
         <v>10</v>
       </c>
       <c r="C205" s="2">
-        <v>1142135</v>
+        <v>1142137</v>
       </c>
       <c r="D205" s="2">
-        <v>39915</v>
+        <v>39917</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>11</v>
@@ -4441,10 +4474,10 @@
         <v>10</v>
       </c>
       <c r="C206" s="2">
-        <v>1142136</v>
+        <v>4001635</v>
       </c>
       <c r="D206" s="2">
-        <v>39916</v>
+        <v>39924</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>11</v>
@@ -4453,7 +4486,7 @@
         <v>12</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H206" s="2">
         <v>12</v>
@@ -4469,16 +4502,16 @@
         <v>10</v>
       </c>
       <c r="C207" s="2">
-        <v>1142137</v>
+        <v>4001636</v>
       </c>
       <c r="D207" s="2">
-        <v>39917</v>
+        <v>39926</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>13</v>
@@ -4491,16 +4524,16 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C208" s="2">
-        <v>4001635</v>
+        <v>1142584</v>
       </c>
       <c r="D208" s="2">
-        <v>39924</v>
+        <v>40350</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>11</v>
@@ -4509,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H208" s="2">
         <v>12</v>
@@ -4519,25 +4552,25 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C209" s="2">
-        <v>4001636</v>
+        <v>1142585</v>
       </c>
       <c r="D209" s="2">
-        <v>39926</v>
+        <v>40355</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H209" s="2">
         <v>12</v>
@@ -4553,19 +4586,19 @@
         <v>10</v>
       </c>
       <c r="C210" s="2">
-        <v>1142584</v>
+        <v>4001638</v>
       </c>
       <c r="D210" s="2">
-        <v>40350</v>
+        <v>40356</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H210" s="2">
         <v>12</v>
@@ -4581,19 +4614,19 @@
         <v>10</v>
       </c>
       <c r="C211" s="2">
-        <v>1142585</v>
+        <v>4001639</v>
       </c>
       <c r="D211" s="2">
-        <v>40355</v>
+        <v>40357</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H211" s="2">
         <v>12</v>
@@ -4603,16 +4636,16 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
-        <v>44694</v>
+        <v>44700</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C212" s="2">
-        <v>4001638</v>
+        <v>4001648</v>
       </c>
       <c r="D212" s="2">
-        <v>40356</v>
+        <v>40691</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>11</v>
@@ -4621,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H212" s="2">
         <v>12</v>
@@ -4631,16 +4664,16 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
-        <v>44694</v>
+        <v>44700</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C213" s="2">
-        <v>4001639</v>
+        <v>4001649</v>
       </c>
       <c r="D213" s="2">
-        <v>40357</v>
+        <v>40692</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>11</v>
@@ -4649,7 +4682,7 @@
         <v>16</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H213" s="2">
         <v>12</v>
@@ -4665,10 +4698,10 @@
         <v>10</v>
       </c>
       <c r="C214" s="2">
-        <v>4001648</v>
+        <v>4001650</v>
       </c>
       <c r="D214" s="2">
-        <v>40691</v>
+        <v>40693</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>11</v>
@@ -4693,10 +4726,10 @@
         <v>10</v>
       </c>
       <c r="C215" s="2">
-        <v>4001649</v>
+        <v>4001651</v>
       </c>
       <c r="D215" s="2">
-        <v>40692</v>
+        <v>40694</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>11</v>
@@ -4715,22 +4748,22 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
-        <v>44700</v>
+        <v>44719</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C216" s="2">
-        <v>4001650</v>
+        <v>1144185</v>
       </c>
       <c r="D216" s="2">
-        <v>40693</v>
+        <v>41775</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>17</v>
@@ -4743,22 +4776,22 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
-        <v>44700</v>
+        <v>44719</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="2">
-        <v>4001651</v>
+        <v>1144186</v>
       </c>
       <c r="D217" s="2">
-        <v>40694</v>
+        <v>41778</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>17</v>
@@ -4777,10 +4810,10 @@
         <v>10</v>
       </c>
       <c r="C218" s="2">
-        <v>1144185</v>
+        <v>1144187</v>
       </c>
       <c r="D218" s="2">
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>11</v>
@@ -4805,10 +4838,10 @@
         <v>10</v>
       </c>
       <c r="C219" s="2">
-        <v>1144186</v>
+        <v>1144188</v>
       </c>
       <c r="D219" s="2">
-        <v>41778</v>
+        <v>41780</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>11</v>
@@ -4833,10 +4866,10 @@
         <v>10</v>
       </c>
       <c r="C220" s="2">
-        <v>1144187</v>
+        <v>1144189</v>
       </c>
       <c r="D220" s="2">
-        <v>41779</v>
+        <v>41781</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>11</v>
@@ -4855,16 +4888,16 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
-        <v>44719</v>
+        <v>44732</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C221" s="2">
-        <v>1144188</v>
+        <v>1144946</v>
       </c>
       <c r="D221" s="2">
-        <v>41780</v>
+        <v>42552</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>11</v>
@@ -4873,7 +4906,7 @@
         <v>12</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H221" s="2">
         <v>12</v>
@@ -4883,16 +4916,16 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
-        <v>44719</v>
+        <v>44732</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C222" s="2">
-        <v>1144189</v>
+        <v>1144947</v>
       </c>
       <c r="D222" s="2">
-        <v>41781</v>
+        <v>42553</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>11</v>
@@ -4901,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H222" s="2">
         <v>12</v>
@@ -4917,10 +4950,10 @@
         <v>10</v>
       </c>
       <c r="C223" s="2">
-        <v>1144946</v>
+        <v>1144948</v>
       </c>
       <c r="D223" s="2">
-        <v>42552</v>
+        <v>42554</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>11</v>
@@ -4945,10 +4978,10 @@
         <v>10</v>
       </c>
       <c r="C224" s="2">
-        <v>1144947</v>
+        <v>1144949</v>
       </c>
       <c r="D224" s="2">
-        <v>42553</v>
+        <v>42555</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>11</v>
@@ -4967,25 +5000,25 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
-        <v>44732</v>
+        <v>44736</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="2">
-        <v>1144948</v>
+        <v>4001721</v>
       </c>
       <c r="D225" s="2">
-        <v>42554</v>
+        <v>42862</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H225" s="2">
         <v>12</v>
@@ -4995,25 +5028,25 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
-        <v>44732</v>
+        <v>44736</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="2">
-        <v>1144949</v>
+        <v>4001722</v>
       </c>
       <c r="D226" s="2">
-        <v>42555</v>
+        <v>42873</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H226" s="2">
         <v>12</v>
@@ -5023,16 +5056,16 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
-        <v>44736</v>
+        <v>44743</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="2">
-        <v>4001721</v>
+        <v>4001742</v>
       </c>
       <c r="D227" s="2">
-        <v>42862</v>
+        <v>43288</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>11</v>
@@ -5041,7 +5074,7 @@
         <v>16</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H227" s="2">
         <v>12</v>
@@ -5051,16 +5084,16 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
-        <v>44736</v>
+        <v>44743</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C228" s="2">
-        <v>4001722</v>
+        <v>4001743</v>
       </c>
       <c r="D228" s="2">
-        <v>42873</v>
+        <v>43289</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>11</v>
@@ -5069,7 +5102,7 @@
         <v>16</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H228" s="2">
         <v>12</v>
@@ -5085,10 +5118,10 @@
         <v>10</v>
       </c>
       <c r="C229" s="2">
-        <v>4001742</v>
+        <v>4001744</v>
       </c>
       <c r="D229" s="2">
-        <v>43288</v>
+        <v>43290</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>11</v>
@@ -5104,62 +5137,6 @@
       </c>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A230" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="2">
-        <v>4001743</v>
-      </c>
-      <c r="D230" s="2">
-        <v>43289</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H230" s="2">
-        <v>12</v>
-      </c>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A231" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C231" s="2">
-        <v>4001744</v>
-      </c>
-      <c r="D231" s="2">
-        <v>43290</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H231" s="2">
-        <v>12</v>
-      </c>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
